--- a/ResultadoEleicoesDistritos/LEIRIA_MARINHA GRANDE.xlsx
+++ b/ResultadoEleicoesDistritos/LEIRIA_MARINHA GRANDE.xlsx
@@ -597,64 +597,64 @@
         <v>10266</v>
       </c>
       <c r="H2" t="n">
-        <v>378</v>
+        <v>383</v>
       </c>
       <c r="I2" t="n">
-        <v>997</v>
+        <v>1006</v>
       </c>
       <c r="J2" t="n">
-        <v>4218</v>
+        <v>4188</v>
       </c>
       <c r="K2" t="n">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="L2" t="n">
-        <v>1183</v>
+        <v>1158</v>
       </c>
       <c r="M2" t="n">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="N2" t="n">
-        <v>801</v>
+        <v>732</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P2" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="Q2" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="R2" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S2" t="n">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="T2" t="n">
-        <v>716</v>
+        <v>743</v>
       </c>
       <c r="U2" t="n">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="V2" t="n">
-        <v>6548</v>
+        <v>6565</v>
       </c>
       <c r="W2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="X2" t="n">
-        <v>6582</v>
+        <v>6609</v>
       </c>
       <c r="Y2" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="Z2" t="n">
-        <v>94</v>
+        <v>110</v>
       </c>
       <c r="AA2" t="n">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
